--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/67/word_level_predictions_67.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>wireless</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3830,260 +3830,260 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>3</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>3</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>3</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4125,11 +4125,11 @@
         </is>
       </c>
       <c r="I71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K71" s="2" t="b">
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="I72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K72" s="2" t="b">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4229,11 +4229,11 @@
         </is>
       </c>
       <c r="I73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K73" s="2" t="b">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G83" s="2" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/67/word_level_predictions_67.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>wireless</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3830,260 +3830,260 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="D66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4125,11 +4125,11 @@
         </is>
       </c>
       <c r="I71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K71" s="2" t="b">
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="I72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K72" s="2" t="b">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4229,11 +4229,11 @@
         </is>
       </c>
       <c r="I73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K73" s="2" t="b">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" s="2" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
